--- a/Employee_Details_New.xlsx
+++ b/Employee_Details_New.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Techie</t>
         </is>
       </c>
       <c r="D2" t="n">
